--- a/assets/dataFiles/Honeymoon Tour Packages.xlsx
+++ b/assets/dataFiles/Honeymoon Tour Packages.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\slidertest\excelfetch\2. TOUR PACKAGES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B449C8-E351-46B4-9905-644350494ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B1DBD-59B3-4633-8EDD-342AE46E545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Honeymoon Tour Packages</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>VALLEY COTTAGE</t>
+  </si>
+  <si>
+    <t>Please Contact Us</t>
   </si>
 </sst>
 </file>
@@ -400,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECEC553-82EA-4EAC-B4B9-51FA62012285}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -429,4 +433,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074EE4B8-DFAD-4E55-BC12-994161785DEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/dataFiles/Honeymoon Tour Packages.xlsx
+++ b/assets/dataFiles/Honeymoon Tour Packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B1DBD-59B3-4633-8EDD-342AE46E545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B5F6E-F5AE-44E7-AD3F-8DC3FDA0280E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Honeymoon Tour Packages</t>
   </si>
@@ -50,14 +50,95 @@
     <t>VALLEY COTTAGE</t>
   </si>
   <si>
-    <t>Please Contact Us</t>
+    <t>Day 1&lt;br&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
+Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;
+Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop.</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>VEHICLES</t>
+  </si>
+  <si>
+    <t>AMOUNT in INR</t>
+  </si>
+  <si>
+    <t>TOLL,
+PARKING EXRA</t>
+  </si>
+  <si>
+    <t>SEAT CAPACITY</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>INDICA NON A/C</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>4+1</t>
+  </si>
+  <si>
+    <t>BOOK NOW! </t>
+  </si>
+  <si>
+    <t>INDICA A/C</t>
+  </si>
+  <si>
+    <t>INDIGO A/C</t>
+  </si>
+  <si>
+    <t>MAHENDRA LOGAN A/C</t>
+  </si>
+  <si>
+    <t>SWIFT DZIRE A/C</t>
+  </si>
+  <si>
+    <t>TOYOTA ETIOS A/C</t>
+  </si>
+  <si>
+    <t>TAVERA NON A/C</t>
+  </si>
+  <si>
+    <t>8+1</t>
+  </si>
+  <si>
+    <t>TAVERA A/C</t>
+  </si>
+  <si>
+    <t>MAHENDRA XYLO A/C</t>
+  </si>
+  <si>
+    <t>7+1</t>
+  </si>
+  <si>
+    <t>INNOVA A/C</t>
+  </si>
+  <si>
+    <t>TRAVELLER NON A/C</t>
+  </si>
+  <si>
+    <t>13+1</t>
+  </si>
+  <si>
+    <t>COACH NON A/C</t>
+  </si>
+  <si>
+    <t>20+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +146,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -82,12 +196,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,9 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECEC553-82EA-4EAC-B4B9-51FA62012285}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -437,20 +727,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074EE4B8-DFAD-4E55-BC12-994161785DEF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>7700</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7700</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8200</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11">
+        <v>8300</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11">
+        <v>8500</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11">
+        <v>8900</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <v>9200</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11">
+        <v>9500</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11">
+        <v>13000</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15">
+        <v>14000</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/dataFiles/Honeymoon Tour Packages.xlsx
+++ b/assets/dataFiles/Honeymoon Tour Packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B5F6E-F5AE-44E7-AD3F-8DC3FDA0280E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB8DB5-FE91-4E81-A94F-A053772EBED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
   </bookViews>
@@ -332,6 +332,36 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,36 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,288 +730,292 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>7700</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>7700</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>8000</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>8200</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>8300</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>8500</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>8900</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="5">
         <v>9000</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <v>9200</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="5">
         <v>9500</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <v>13000</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="9">
         <v>14000</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="10" t="s">
         <v>14</v>
       </c>
     </row>

--- a/assets/dataFiles/Honeymoon Tour Packages.xlsx
+++ b/assets/dataFiles/Honeymoon Tour Packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB8DB5-FE91-4E81-A94F-A053772EBED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514308AB-CE07-4A26-87C0-4A95FE9CF21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
   </bookViews>
@@ -50,11 +50,6 @@
     <t>VALLEY COTTAGE</t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
-Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;
-Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop.</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -129,6 +124,20 @@
   </si>
   <si>
     <t>20+1</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -730,7 +739,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +760,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -761,22 +770,22 @@
     </row>
     <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,19 +793,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>7700</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,19 +813,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>7700</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,19 +833,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
         <v>8000</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,19 +853,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>8200</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,19 +873,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>8300</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,19 +893,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>8500</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,19 +913,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>8900</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,19 +933,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
         <v>9000</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,19 +953,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>9200</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,19 +973,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>9500</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -984,19 +993,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>13000</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1004,19 +1013,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9">
         <v>14000</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/assets/dataFiles/Honeymoon Tour Packages.xlsx
+++ b/assets/dataFiles/Honeymoon Tour Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65a68d64199edf42/Desktop/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514308AB-CE07-4A26-87C0-4A95FE9CF21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7E2CB310-56CF-47F5-8E5C-92E453615F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,24 +707,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -742,13 +742,13 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -808,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -848,7 +848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -868,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -928,7 +928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -948,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -968,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -988,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>12</v>
       </c>
